--- a/medicine/Maladies infectieuses/Pandémie_de_Covid-19_à_Saint-Vincent-et-les-Grenadines/Pandémie_de_Covid-19_à_Saint-Vincent-et-les-Grenadines.xlsx
+++ b/medicine/Maladies infectieuses/Pandémie_de_Covid-19_à_Saint-Vincent-et-les-Grenadines/Pandémie_de_Covid-19_à_Saint-Vincent-et-les-Grenadines.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_%C3%A0_Saint-Vincent-et-les-Grenadines</t>
+          <t>Pandémie_de_Covid-19_à_Saint-Vincent-et-les-Grenadines</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La pandémie de Covid-19 est une crise sanitaire majeure provoquée par une maladie infectieuse émergente apparue fin 2019 en Chine continentale, la maladie à coronavirus 2019, dont l'agent pathogène est le SARS-CoV-2. Ce virus est à l'origine d'une pandémie[Note 1], déclarée le 11 mars 2020 par l'Organisation mondiale de la santé.
 La pandémie de Covid-19 à Saint-Vincent-et-les-Grenadines démarre officiellement le 11 mars 2020. À la date du 25 octobre 2022, le bilan est de 115 morts.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_%C3%A0_Saint-Vincent-et-les-Grenadines</t>
+          <t>Pandémie_de_Covid-19_à_Saint-Vincent-et-les-Grenadines</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,23 +526,18 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021
-Mars
-Le 11 mars 2020, Saint-Vincent-et-les-Grenadines a confirmé son premier cas[7]. Le passager avait voyagé du Royaume-Uni à Saint-Vincent via la Barbade. Il a voyagé sur British Airways à la Barbade et ensuite à Saint-Vincent via LIAT. [réf. nécessaire] 
-Le 27 mars 2020, le ministre de la Santé, le sénateur Luke Browne, a annoncé qu'un nouveau test pour le patient qui avait initialement été positif était désormais négatif[5].
-Avril
-Le 1er avril 2020, Saint-Vincent-et-les Grenadines a enregistré son deuxième cas confirmé de Covid-19[8]. Le Premier ministre Ralph Gonsalves a annoncé que le festival annuel Vincy Mas sera annulé pour 2020, afin de protéger la population de la propagation du virus Covid-19[9].
-Le 2 avril 2020, le ministère de la Santé a annoncé qu'un troisième cas avait été enregistré[réf. nécessaire] . 
-Le 3 avril 2020, le ministère de la Santé a annoncé que 4 cas supplémentaires avaient été enregistrés, portant le nombre total de cas à 7[réf. nécessaire].
-Mai
-Le 29 mai 2020, le Ministère de la Santé a annoncé qu'un 26e cas avait été enregistré[3].
-Juin
-Il est annoncé que l'île ne compte plus de cas actif de la Covid-19 sur son sol au 25 juin 2020[10].
-Juillet
-Le 11 juillet 2020, lors d'un vol d'American Airlines, 12 touristes positifs au covid-19 se rendent sur l'archipel et relance l'épidémie dans le pays[11]. Le premier ministre Ralph Gonsalves annonce l'arrêt des vols envers et depuis les États-Unis à partir du 25 juillet 2020[11].
-2022
-Février
-Le 9 février 2022, le palier des 100 morts est atteint[12]
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 11 mars 2020, Saint-Vincent-et-les-Grenadines a confirmé son premier cas. Le passager avait voyagé du Royaume-Uni à Saint-Vincent via la Barbade. Il a voyagé sur British Airways à la Barbade et ensuite à Saint-Vincent via LIAT. [réf. nécessaire] 
+Le 27 mars 2020, le ministre de la Santé, le sénateur Luke Browne, a annoncé qu'un nouveau test pour le patient qui avait initialement été positif était désormais négatif.
 </t>
         </is>
       </c>
@@ -541,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_%C3%A0_Saint-Vincent-et-les-Grenadines</t>
+          <t>Pandémie_de_Covid-19_à_Saint-Vincent-et-les-Grenadines</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -556,10 +563,219 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Chronologie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 1er avril 2020, Saint-Vincent-et-les Grenadines a enregistré son deuxième cas confirmé de Covid-19. Le Premier ministre Ralph Gonsalves a annoncé que le festival annuel Vincy Mas sera annulé pour 2020, afin de protéger la population de la propagation du virus Covid-19.
+Le 2 avril 2020, le ministère de la Santé a annoncé qu'un troisième cas avait été enregistré[réf. nécessaire] . 
+Le 3 avril 2020, le ministère de la Santé a annoncé que 4 cas supplémentaires avaient été enregistrés, portant le nombre total de cas à 7[réf. nécessaire].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Pandémie_de_Covid-19_à_Saint-Vincent-et-les-Grenadines</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Maladies infectieuses/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pand%C3%A9mie_de_Covid-19_%C3%A0_Saint-Vincent-et-les-Grenadines</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Chronologie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 29 mai 2020, le Ministère de la Santé a annoncé qu'un 26e cas avait été enregistré.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Pandémie_de_Covid-19_à_Saint-Vincent-et-les-Grenadines</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Maladies infectieuses/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pand%C3%A9mie_de_Covid-19_%C3%A0_Saint-Vincent-et-les-Grenadines</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Chronologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est annoncé que l'île ne compte plus de cas actif de la Covid-19 sur son sol au 25 juin 2020.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Pandémie_de_Covid-19_à_Saint-Vincent-et-les-Grenadines</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Maladies infectieuses/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pand%C3%A9mie_de_Covid-19_%C3%A0_Saint-Vincent-et-les-Grenadines</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Chronologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 11 juillet 2020, lors d'un vol d'American Airlines, 12 touristes positifs au covid-19 se rendent sur l'archipel et relance l'épidémie dans le pays. Le premier ministre Ralph Gonsalves annonce l'arrêt des vols envers et depuis les États-Unis à partir du 25 juillet 2020.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Pandémie_de_Covid-19_à_Saint-Vincent-et-les-Grenadines</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Maladies infectieuses/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pand%C3%A9mie_de_Covid-19_%C3%A0_Saint-Vincent-et-les-Grenadines</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Chronologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Février</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 9 février 2022, le palier des 100 morts est atteint
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Pandémie_de_Covid-19_à_Saint-Vincent-et-les-Grenadines</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Maladies infectieuses/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pand%C3%A9mie_de_Covid-19_%C3%A0_Saint-Vincent-et-les-Grenadines</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Statistiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
